--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ippei/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ippei/IdeaProjects/tika/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4AE49DD-08B2-AE48-B0AA-C360D9EF2163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1480F5A9-0BF8-BD4B-B4B2-5AF50E5A90DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1560" windowWidth="28300" windowHeight="17440" xr2:uid="{A52E505E-3DAB-794A-A503-72023EAC088E}"/>
+    <workbookView xWindow="2640" yWindow="1560" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{A52E505E-3DAB-794A-A503-72023EAC088E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,11 +34,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>manaBrain Retriever は素晴らしいクラウドサービスです。</t>
     <rPh sb="21" eb="23">
       <t xml:space="preserve">スバラシイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manaBbrain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manaBrain Retriever</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追い風</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オイカゼ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -405,9 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DCF456-64B8-D648-A5DC-BD86E3364A8B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -420,4 +442,55 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5826449B-FA2C-1540-A8F8-4D853F06D09F}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>